--- a/biology/Botanique/Forêt_nationale_Gifford_Pinchot/Forêt_nationale_Gifford_Pinchot.xlsx
+++ b/biology/Botanique/Forêt_nationale_Gifford_Pinchot/Forêt_nationale_Gifford_Pinchot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_nationale_Gifford_Pinchot</t>
+          <t>Forêt_nationale_Gifford_Pinchot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt nationale Gifford Pinchot National Forest est une forêt nationale américaine située dans l'État de Washington aux États-Unis. Elle couvre une superficie de 5 537 km2 à l'ouest de la chaîne montagneuse des Cascades. Elle comporte les 445 km2 du monument national du mont St Helens créé en 1982 par le Congrès américain.
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_nationale_Gifford_Pinchot</t>
+          <t>Forêt_nationale_Gifford_Pinchot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +532,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt est une des plus anciennes forêts nationales des États-Unis. Elle faisait d'abord partie de la Mount Rainier Forest Reserve en 1897 ; la zone fut ensuite séparée en tant que Columbia National Forest en 1908. Son nom actuel lui a été donné en 1949.
 </t>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_nationale_Gifford_Pinchot</t>
+          <t>Forêt_nationale_Gifford_Pinchot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt nationale est située dans une région montagneuse comprise entre le Mont Saint Helens et le Mont Adams non loin du fleuve Columbia qui passe plus au sud. 
 </t>
